--- a/data/out/Excel/Enterobacteriaceae.xlsx
+++ b/data/out/Excel/Enterobacteriaceae.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kayo\Desktop\Bacteria Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kayo\Desktop\Code\SequenceAnalysis\data\out\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{791533DB-B759-4905-A9F3-EABEB9202ED6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F5FCB0-42B8-4473-A713-5F28183A1A6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2295" yWindow="2295" windowWidth="19800" windowHeight="10995"/>
+    <workbookView xWindow="-8685" yWindow="9960" windowWidth="17445" windowHeight="11970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Enterobacteriaceae" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Enterobacteriaceae!$A$1:$E$115</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -382,7 +385,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1232,11 +1235,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3204,6 +3207,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E115" xr:uid="{A5D8280B-A518-4FE8-AED2-5191CAD1DA33}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E115">
     <sortCondition descending="1" ref="E1"/>
   </sortState>
